--- a/results_cnn_subnetwork_evaluation/pcc/cnn_validation_SubRCM_pcc_origin.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/cnn_validation_SubRCM_pcc_origin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\pcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F03DBAD-6111-4485-9F3F-BD8580A5C73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6A2BFB-56F6-4E6A-B23B-B8D1DE03BAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sr_1.0" sheetId="1" r:id="rId1"/>
@@ -522,13 +522,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -562,7 +560,7 @@
         <v>0.8812819752273342</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -579,7 +577,7 @@
         <v>0.93520181860220253</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -596,7 +594,7 @@
         <v>0.87718623712457133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -613,7 +611,7 @@
         <v>0.9163973706440014</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -630,7 +628,7 @@
         <v>0.95445594388242916</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -647,7 +645,7 @@
         <v>0.92991971008604346</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -664,7 +662,7 @@
         <v>0.93357657394532567</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -681,7 +679,7 @@
         <v>0.95871799386139145</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -698,7 +696,7 @@
         <v>0.9849594900796308</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -715,7 +713,7 @@
         <v>0.95834693509325619</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -732,7 +730,7 @@
         <v>0.90972736911179664</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -749,7 +747,7 @@
         <v>0.95420495918856374</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -766,7 +764,7 @@
         <v>0.91865822013762488</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -783,7 +781,7 @@
         <v>0.90592375658308233</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -800,7 +798,7 @@
         <v>0.93563713252727221</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -817,7 +815,7 @@
         <v>0.9527437626806895</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -834,7 +832,7 @@
         <v>0.91162811282769807</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -851,7 +849,7 @@
         <v>0.96058058430545246</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -868,7 +866,7 @@
         <v>0.93130437265593025</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -885,7 +883,7 @@
         <v>0.88008299215559282</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -902,7 +900,7 @@
         <v>0.8999706251352857</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -919,7 +917,7 @@
         <v>0.90539587163182955</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -936,7 +934,7 @@
         <v>0.93784414715307507</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -953,7 +951,7 @@
         <v>0.93812930565057007</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -970,7 +968,7 @@
         <v>0.87783379749528545</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -987,7 +985,7 @@
         <v>0.83413134742970596</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1004,7 +1002,7 @@
         <v>0.8461479747110795</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>0.99236142939896754</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1038,7 +1036,7 @@
         <v>0.99354327410349086</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1055,7 +1053,7 @@
         <v>0.95424044748482006</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1072,7 +1070,7 @@
         <v>0.92567111769713339</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1103,13 +1101,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1143,7 +1139,7 @@
         <v>0.88155364920083257</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1160,7 +1156,7 @@
         <v>0.92335418959892512</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1173,7 @@
         <v>0.84658800837701731</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1194,7 +1190,7 @@
         <v>0.908183670530186</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1211,7 +1207,7 @@
         <v>0.93319088885155144</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1228,7 +1224,7 @@
         <v>0.84911078340290014</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1245,7 +1241,7 @@
         <v>0.90546729797036463</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1258,7 @@
         <v>0.95777519361939611</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1279,7 +1275,7 @@
         <v>0.9768035102003243</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1296,7 +1292,7 @@
         <v>0.96053855924841147</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1313,7 +1309,7 @@
         <v>0.90482924682738075</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1330,7 +1326,7 @@
         <v>0.90025489802328384</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1347,7 +1343,7 @@
         <v>0.88952412620949062</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1364,7 +1360,7 @@
         <v>0.88557746569731999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1381,7 +1377,7 @@
         <v>0.88464557596401616</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1398,7 +1394,7 @@
         <v>0.94526389175337255</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1415,7 +1411,7 @@
         <v>0.90315151850614517</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1432,7 +1428,7 @@
         <v>0.93920238671438516</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1449,7 +1445,7 @@
         <v>0.95734343481574391</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1466,7 +1462,7 @@
         <v>0.7949023208940853</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1483,7 +1479,7 @@
         <v>0.92125849055919118</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1500,7 +1496,7 @@
         <v>0.91238855434893151</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1517,7 +1513,7 @@
         <v>0.93843035477868464</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1534,7 +1530,7 @@
         <v>0.89926580219974706</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1551,7 +1547,7 @@
         <v>0.88301391698699994</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1568,7 +1564,7 @@
         <v>0.82970257435827643</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1585,7 +1581,7 @@
         <v>0.80565866206358139</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1602,7 +1598,7 @@
         <v>0.98878959865134752</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1619,7 +1615,7 @@
         <v>0.98309176205107041</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1636,7 +1632,7 @@
         <v>0.94189725010012049</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1653,7 +1649,7 @@
         <v>0.908358586083436</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1684,13 +1680,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1724,7 +1718,7 @@
         <v>0.85194439439538028</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1741,7 +1735,7 @@
         <v>0.89278560753982439</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1758,7 +1752,7 @@
         <v>0.85222850744760292</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1775,7 +1769,7 @@
         <v>0.89994308476320628</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1792,7 +1786,7 @@
         <v>0.89029128363623866</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1809,7 +1803,7 @@
         <v>0.902902843666609</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1826,7 +1820,7 @@
         <v>0.90084325535727028</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1843,7 +1837,7 @@
         <v>0.9292892479382372</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1860,7 +1854,7 @@
         <v>0.95555706482612646</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1877,7 +1871,7 @@
         <v>0.94960228457246276</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1894,7 +1888,7 @@
         <v>0.89953278212383392</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1911,7 +1905,7 @@
         <v>0.92149424650923317</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1928,7 +1922,7 @@
         <v>0.836141296836586</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1945,7 +1939,7 @@
         <v>0.82664452834193725</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1962,7 +1956,7 @@
         <v>0.88284288607413808</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1979,7 +1973,7 @@
         <v>0.94388950614956646</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1996,7 +1990,7 @@
         <v>0.84294152428974978</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2013,7 +2007,7 @@
         <v>0.93192475635252747</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2030,7 +2024,7 @@
         <v>0.93469491833827267</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2047,7 +2041,7 @@
         <v>0.78743572990101229</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2064,7 +2058,7 @@
         <v>0.83038874667197204</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2081,7 +2075,7 @@
         <v>0.85487154059614334</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2098,7 +2092,7 @@
         <v>0.92249541415224934</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2115,7 +2109,7 @@
         <v>0.89001982894664733</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2132,7 +2126,7 @@
         <v>0.89969154552599107</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2149,7 +2143,7 @@
         <v>0.82485646613509511</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2166,7 +2160,7 @@
         <v>0.78878333663855094</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2183,7 +2177,7 @@
         <v>0.98015045281434454</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2200,7 +2194,7 @@
         <v>0.98502970258127609</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2217,7 +2211,7 @@
         <v>0.9560348187378791</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2234,7 +2228,7 @@
         <v>0.89217505339533232</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2265,13 +2259,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2288,7 +2280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2305,7 +2297,7 @@
         <v>0.83975935694891357</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +2314,7 @@
         <v>0.82874190234099776</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2339,7 +2331,7 @@
         <v>0.82985153682394741</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2356,7 +2348,7 @@
         <v>0.84131216682525523</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2373,7 +2365,7 @@
         <v>0.77513803850730845</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2390,7 +2382,7 @@
         <v>0.83162492709613289</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2407,7 +2399,7 @@
         <v>0.81226401325148723</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2424,7 +2416,7 @@
         <v>0.8930551627241311</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2441,7 +2433,7 @@
         <v>0.8997083898244338</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2458,7 +2450,7 @@
         <v>0.91337725068042719</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2475,7 +2467,7 @@
         <v>0.84814564949348592</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2492,7 +2484,7 @@
         <v>0.91953551528637711</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2509,7 +2501,7 @@
         <v>0.81491664871174618</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2526,7 +2518,7 @@
         <v>0.76671773959977774</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2543,7 +2535,7 @@
         <v>0.81096300280990152</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2560,7 +2552,7 @@
         <v>0.7934512996308335</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2577,7 +2569,7 @@
         <v>0.76313700672784279</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2594,7 +2586,7 @@
         <v>0.84082419731424396</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2611,7 +2603,7 @@
         <v>0.81931763191443063</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2628,7 +2620,7 @@
         <v>0.72197067356327038</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2645,7 +2637,7 @@
         <v>0.86398814410789382</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2662,7 +2654,7 @@
         <v>0.72956284946757233</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2679,7 +2671,7 @@
         <v>0.79903028532324694</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2696,7 +2688,7 @@
         <v>0.81481976503291875</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2713,7 +2705,7 @@
         <v>0.84312039130710636</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2730,7 +2722,7 @@
         <v>0.8316984041522042</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2747,7 +2739,7 @@
         <v>0.76469984418704506</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2764,7 +2756,7 @@
         <v>0.92298178293744271</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2781,7 +2773,7 @@
         <v>0.86733731053462715</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2798,7 +2790,7 @@
         <v>0.97012290216142438</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2815,7 +2807,7 @@
         <v>0.83237245964288076</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2846,13 +2838,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2869,7 +2859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2886,7 +2876,7 @@
         <v>0.7830841047707342</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2903,7 +2893,7 @@
         <v>0.75524024862102535</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2920,7 +2910,7 @@
         <v>0.73924176038116773</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2937,7 +2927,7 @@
         <v>0.68505109621444926</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2954,7 +2944,7 @@
         <v>0.71206687135788282</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2971,7 +2961,7 @@
         <v>0.63299027604526059</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2988,7 +2978,7 @@
         <v>0.82438834168513431</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3005,7 +2995,7 @@
         <v>0.83028541152889734</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3022,7 +3012,7 @@
         <v>0.84829401767509283</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3039,7 +3029,7 @@
         <v>0.82285739194297647</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3056,7 +3046,7 @@
         <v>0.78758817435884165</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3073,7 +3063,7 @@
         <v>0.84895065939166836</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3090,7 +3080,7 @@
         <v>0.79475118227691655</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -3107,7 +3097,7 @@
         <v>0.67511328754994404</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3124,7 +3114,7 @@
         <v>0.64031411550173889</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3141,7 +3131,7 @@
         <v>0.80498683598920573</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3158,7 +3148,7 @@
         <v>0.62711578784191535</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3175,7 +3165,7 @@
         <v>0.76340603035009313</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3192,7 +3182,7 @@
         <v>0.76874693462164734</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3209,7 +3199,7 @@
         <v>0.71705219367447448</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3226,7 +3216,7 @@
         <v>0.81192700711828503</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3243,7 +3233,7 @@
         <v>0.57007445953810443</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3260,7 +3250,7 @@
         <v>0.67837200644682027</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -3277,7 +3267,7 @@
         <v>0.75246509593063604</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3294,7 +3284,7 @@
         <v>0.72371432079809384</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3311,7 +3301,7 @@
         <v>0.73933523461284678</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3328,7 +3318,7 @@
         <v>0.66111397010802597</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3345,7 +3335,7 @@
         <v>0.83434093503015805</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3362,7 +3352,7 @@
         <v>0.80823655283320339</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -3379,7 +3369,7 @@
         <v>0.97302494906205772</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3396,7 +3386,7 @@
         <v>0.75380430844191004</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3427,13 +3417,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3450,7 +3438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3467,7 +3455,7 @@
         <v>0.58909869678434401</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3484,7 +3472,7 @@
         <v>0.55013630365153554</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3501,7 +3489,7 @@
         <v>0.63532541162510758</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3518,7 +3506,7 @@
         <v>0.49113717952048508</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3535,7 +3523,7 @@
         <v>0.43083105173345138</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3552,7 +3540,7 @@
         <v>0.39941363147481801</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3569,7 +3557,7 @@
         <v>0.70454503276598568</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3586,7 +3574,7 @@
         <v>0.64117625296421643</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3603,7 +3591,7 @@
         <v>0.66097144370108363</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3620,7 +3608,7 @@
         <v>0.69042821887786743</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3637,7 +3625,7 @@
         <v>0.6231391630397104</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3654,7 +3642,7 @@
         <v>0.62443023846988477</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3671,7 +3659,7 @@
         <v>0.60555681163965913</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -3688,7 +3676,7 @@
         <v>0.44066017354880882</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3705,7 +3693,7 @@
         <v>0.48570766847490149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3722,7 +3710,7 @@
         <v>0.57018619947789617</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3739,7 +3727,7 @@
         <v>0.55230674167788252</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3756,7 +3744,7 @@
         <v>0.61513749614509461</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3773,7 +3761,7 @@
         <v>0.52562507493402166</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3790,7 +3778,7 @@
         <v>0.53634312787133431</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -3807,7 +3795,7 @@
         <v>0.62526071953556994</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3824,7 +3812,7 @@
         <v>0.43344466158851153</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -3841,7 +3829,7 @@
         <v>0.54369309117181408</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -3858,7 +3846,7 @@
         <v>0.54410914813174593</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3875,7 +3863,7 @@
         <v>0.60093688169567527</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3892,7 +3880,7 @@
         <v>0.58160081671022701</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3909,7 +3897,7 @@
         <v>0.61427301728721861</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3926,7 +3914,7 @@
         <v>0.69642001073249293</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3943,7 +3931,7 @@
         <v>0.77730855581894021</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -3960,7 +3948,7 @@
         <v>0.90910733522893616</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3977,7 +3965,7 @@
         <v>0.58994367187597385</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -4008,11 +3996,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4029,7 +4017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4046,7 +4034,7 @@
         <v>0.43285131916719638</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4063,7 +4051,7 @@
         <v>0.42181325843120387</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4080,7 +4068,7 @@
         <v>0.42024851628133109</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4097,7 +4085,7 @@
         <v>0.39269321315397648</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4114,7 +4102,7 @@
         <v>0.40223383095490312</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4131,7 +4119,7 @@
         <v>0.27454746262730417</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4148,7 +4136,7 @@
         <v>0.60007147669813343</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4165,7 +4153,7 @@
         <v>0.49177545162187047</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -4182,7 +4170,7 @@
         <v>0.54779658893916938</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -4199,7 +4187,7 @@
         <v>0.39756176833753049</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -4216,7 +4204,7 @@
         <v>0.29415875945057379</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -4233,7 +4221,7 @@
         <v>0.44957585088759061</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -4250,7 +4238,7 @@
         <v>0.40110992247853228</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -4267,7 +4255,7 @@
         <v>0.3407737496783903</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4284,7 +4272,7 @@
         <v>0.37366219479068291</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -4301,7 +4289,7 @@
         <v>0.45359172083124599</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4318,7 +4306,7 @@
         <v>0.41295473123996979</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4335,7 +4323,7 @@
         <v>0.36112806578816092</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4352,7 +4340,7 @@
         <v>0.42422466741337311</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -4369,7 +4357,7 @@
         <v>0.41336561849105952</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4386,7 +4374,7 @@
         <v>0.46590586222948183</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -4403,7 +4391,7 @@
         <v>0.27298764647286539</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -4420,7 +4408,7 @@
         <v>0.27752004220813842</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -4437,7 +4425,7 @@
         <v>0.37581945592237681</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -4454,7 +4442,7 @@
         <v>0.4558537711241849</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -4471,7 +4459,7 @@
         <v>0.43076476816677889</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -4488,7 +4476,7 @@
         <v>0.43289709889802142</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -4505,7 +4493,7 @@
         <v>0.66336698575187314</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4522,7 +4510,7 @@
         <v>0.72759803778381049</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -4539,7 +4527,7 @@
         <v>0.6779088565949285</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -4556,7 +4544,7 @@
         <v>0.43622535641382182</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
